--- a/analise_curva_abc/analises_prontas/ordem/normal/divisao_classe_b_final.xlsx
+++ b/analise_curva_abc/analises_prontas/ordem/normal/divisao_classe_b_final.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\automação\analise_curva_ABC\analise_curva_ABC\analises_prontas\ordem\normal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6542B-F9EF-4376-B474-78516DB27590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -595,8 +589,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,7 +615,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -644,53 +638,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -728,7 +697,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -762,7 +731,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -797,10 +765,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -973,21 +940,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" activeCellId="1" sqref="A1:G33 A34:G65"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="20.42578125" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1009,1480 +970,1479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>126</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>10452</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>14308</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>11511</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>102318</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>106023</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>10938</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>14351</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>690157</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>62640</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>232121</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>10040</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>10161</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>14497</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>10448</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>10354</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>132780</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>761802</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>10944</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>10287</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>233016</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>419432</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>10178</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>10147</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>102292</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>11189</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>102261</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>460000</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>10222</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>61837</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>10949</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>61834</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>11233</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>12448</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>102122</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>61835</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>12017</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>14149</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>10358</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>10146</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>690089</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>10848</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>10818</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>60004</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>10847</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>233007</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>11144</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>450325</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
         <v>11186</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>10820</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>101363</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>11125</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>412780</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>233019</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>11791</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>14611</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>10451</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>10089</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>101113</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>10558</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43">
         <v>62334</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>10012</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>14607</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>14569</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>10794</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>10945</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>11029</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>10216</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>690069</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>11457</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
         <v>231148</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>11064</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45">
         <v>11965</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>10581</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>232011</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>10917</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <v>10229</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>10897</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>10819</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>101308</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>102570</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>233022</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <v>34045</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>233015</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47">
         <v>11516</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>63589</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>63032</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>232053</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>14112</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>14711</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>231322</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>102571</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>11572</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>11979</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>14606</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>231958</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49">
         <v>102604</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>11213</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>19018</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>102263</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
         <v>232465</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>11581</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50">
         <v>10497</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>34282</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>10584</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>11515</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51">
         <v>11190</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51">
         <v>11324</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51">
         <v>4345</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>233018</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>11828</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>14008</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
         <v>14280</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52">
         <v>101837</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52">
         <v>11314</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>14420</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>14918</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>14810</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53">
         <v>10470</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53">
         <v>11440</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53">
         <v>63628</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>14514</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>10880</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>106021</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
         <v>101903</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54">
         <v>61836</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54">
         <v>12133</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>10942</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>102468</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>10460</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
         <v>14426</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55">
         <v>102367</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55">
         <v>102428</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>62345</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>10244</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>236005</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
         <v>63523</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56">
         <v>10237</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56">
         <v>10221</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>11974</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>21294</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>10217</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <v>103009</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57">
         <v>110286</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57">
         <v>12584</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>106020</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>10313</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>61712</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>231713</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58">
         <v>60050</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58">
         <v>1919</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>12449</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>232312</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>63592</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59">
         <v>102430</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59">
         <v>14642</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59">
         <v>110011</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>62618</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>10254</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>231205</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <v>62642</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60">
         <v>10310</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60">
         <v>10238</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>10554</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>63629</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>101226</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <v>102132</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61">
         <v>101423</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61">
         <v>234130</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>10132</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>10947</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>63593</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>14568</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62">
         <v>101909</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62">
         <v>231067</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>14111</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>10127</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>14511</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63">
         <v>61714</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63">
         <v>101810</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63">
         <v>102190</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>10282</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>231714</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>10389</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <v>500800</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64">
         <v>10896</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64">
         <v>10219</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>32</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>236030</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>101173</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>720041</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65">
         <v>14302</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65">
         <v>101114</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65">
         <v>10691</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>